--- a/Dane/teachers.xlsx
+++ b/Dane/teachers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2267D0DC-63DE-41C7-94D0-ECFD825E1EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E190E3DF-C4C7-4769-9E2F-1F84615D7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{DFD427D5-2991-46B2-8C4D-13A7F640A316}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21600" windowHeight="11295" xr2:uid="{DFD427D5-2991-46B2-8C4D-13A7F640A316}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Imię i nazwisko</t>
   </si>
   <si>
-    <t>Anna Pol</t>
-  </si>
-  <si>
-    <t>Adam Mat</t>
-  </si>
-  <si>
-    <t>Ewa Ang</t>
-  </si>
-  <si>
-    <t>Jerzy Rel</t>
+    <t>Wolcz Jolanta</t>
+  </si>
+  <si>
+    <t>Lidia Pawlowska</t>
+  </si>
+  <si>
+    <t>Bieniek Malgorzata</t>
+  </si>
+  <si>
+    <t>Drozewska Ludmila</t>
+  </si>
+  <si>
+    <t>Ruta Aleksandra</t>
+  </si>
+  <si>
+    <t>Ujda Malgorzata</t>
+  </si>
+  <si>
+    <t>Roczniak Malgorzata</t>
+  </si>
+  <si>
+    <t>Damian Babicki</t>
+  </si>
+  <si>
+    <t>Kaczmarski Leszek</t>
+  </si>
+  <si>
+    <t>Kajpust Tomasz</t>
+  </si>
+  <si>
+    <t>Pamuła Bogdan</t>
+  </si>
+  <si>
+    <t>Skiba Maria</t>
+  </si>
+  <si>
+    <t>Trygar Aleksandra</t>
+  </si>
+  <si>
+    <t>Rożek Waldemar</t>
+  </si>
+  <si>
+    <t>Świderski Zygmunt</t>
+  </si>
+  <si>
+    <t>Szabat Tomasz</t>
+  </si>
+  <si>
+    <t>Pamuła Wojciech</t>
+  </si>
+  <si>
+    <t>Drąg Stanisław</t>
+  </si>
+  <si>
+    <t>Łączek Anna</t>
+  </si>
+  <si>
+    <t>Przybylski Adam</t>
+  </si>
+  <si>
+    <t>Żywczyk Anna</t>
+  </si>
+  <si>
+    <t>Wołoszynek Edyta</t>
+  </si>
+  <si>
+    <t>Wierzbicka Ewa</t>
+  </si>
+  <si>
+    <t>Drobny Elżbieta</t>
+  </si>
+  <si>
+    <t>Długosz Barbara</t>
+  </si>
+  <si>
+    <t>Kamila Borowicz</t>
+  </si>
+  <si>
+    <t>Oleś Irena</t>
+  </si>
+  <si>
+    <t>Muciek Barbara</t>
+  </si>
+  <si>
+    <t>Gorczyca Bogusława</t>
+  </si>
+  <si>
+    <t>Godek Piotr</t>
+  </si>
+  <si>
+    <t>Pieróg Barbara</t>
+  </si>
+  <si>
+    <t>Kula Sebastian</t>
+  </si>
+  <si>
+    <t>Cecuła Piotr</t>
+  </si>
+  <si>
+    <t>Gazda Beata</t>
+  </si>
+  <si>
+    <t>Biłogras Jolanta</t>
+  </si>
+  <si>
+    <t>Mazurkiewicz Wiesław</t>
+  </si>
+  <si>
+    <t>Gołojuch Małgorzata</t>
+  </si>
+  <si>
+    <t>Gajda Bożena</t>
+  </si>
+  <si>
+    <t>Andrzej Wnuk</t>
+  </si>
+  <si>
+    <t>Świderska Grażyna</t>
+  </si>
+  <si>
+    <t>Miazga Anna</t>
+  </si>
+  <si>
+    <t>Biłogras Maciej</t>
+  </si>
+  <si>
+    <t>Kawa Jolanta</t>
+  </si>
+  <si>
+    <t>Furman Aneta</t>
+  </si>
+  <si>
+    <t>Zawadzki Konrad</t>
+  </si>
+  <si>
+    <t>Komsa Elżbieta</t>
+  </si>
+  <si>
+    <t>Geraghty Katarzyna</t>
+  </si>
+  <si>
+    <t>Gierak Aleksandra</t>
+  </si>
+  <si>
+    <t>Kajsz Jakub</t>
+  </si>
+  <si>
+    <t>Stasiak Sławomir</t>
+  </si>
+  <si>
+    <t>Strugalski Jerzy</t>
+  </si>
+  <si>
+    <t>Tokarczyk Aneta</t>
+  </si>
+  <si>
+    <t>Żarnowska Anna</t>
   </si>
 </sst>
 </file>
@@ -403,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0AA555-055B-40CD-A3BC-2320BE24A589}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +586,253 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dane/teachers.xlsx
+++ b/Dane/teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E190E3DF-C4C7-4769-9E2F-1F84615D7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1972495B-8E46-4CD2-9EC9-1130B7177039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21600" windowHeight="11295" xr2:uid="{DFD427D5-2991-46B2-8C4D-13A7F640A316}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFD427D5-2991-46B2-8C4D-13A7F640A316}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Imię i nazwisko</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Żarnowska Anna</t>
+  </si>
+  <si>
+    <t>Maczkowska Mirosława</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0AA555-055B-40CD-A3BC-2320BE24A589}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,6 +834,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
